--- a/web/uploads/data-student (2).xlsx
+++ b/web/uploads/data-student (2).xlsx
@@ -417,7 +417,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>1.9524794E7</v>
+        <v>1.9524796E7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
